--- a/data/trans_dic/CONS_DIG-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,36; 3,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,93</t>
+          <t>0,61; 4,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 1,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,92</t>
+          <t>0,62; 2,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 4,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,88</t>
+          <t>2,66; 7,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 3,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 3,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>1,52; 5,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 2,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 2,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,78</t>
+          <t>2,5; 5,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>3,63%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>1,91; 4,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 4,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,73</t>
+          <t>1,23; 4,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,29</t>
+          <t>1,37; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,76; 4,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,29</t>
+          <t>3,05; 7,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 31,8</t>
+          <t>1,88; 3,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,8; 4,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,7</t>
+          <t>2,4; 5,11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>2,67; 5,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,26</t>
+          <t>1,13; 6,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>2,8; 6,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,09</t>
+          <t>3,68; 6,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,87</t>
+          <t>2,46; 5,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,54</t>
+          <t>2,07; 5,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,84</t>
+          <t>3,5; 5,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,02; 2,35</t>
+          <t>1,6; 5,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,21</t>
+          <t>2,81; 5,37</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 9,37</t>
+          <t>7,82; 12,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,01</t>
+          <t>4,51; 9,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,33</t>
+          <t>3,71; 9,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,3</t>
+          <t>5,6; 9,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,96</t>
+          <t>7,08; 12,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,97</t>
+          <t>3,4; 7,71</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,72</t>
+          <t>7,06; 10,18</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,31</t>
+          <t>6,47; 10,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,97</t>
+          <t>4,29; 7,53</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,57</t>
+          <t>10,18; 15,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,22</t>
+          <t>5,36; 11,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,74; 4,33</t>
+          <t>4,82; 9,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,93</t>
+          <t>11,03; 16,57</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,19</t>
+          <t>2,12; 12,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,62</t>
+          <t>7,52; 13,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,78</t>
+          <t>11,5; 15,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 3,44</t>
+          <t>2,64; 10,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,44</t>
+          <t>6,67; 10,1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>15,71%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>14,75%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,93</t>
+          <t>18,96; 26,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 7,7</t>
+          <t>12,06; 21,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,91; 5,59</t>
+          <t>12,43; 19,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,04</t>
+          <t>18,21; 24,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,95</t>
+          <t>14,08; 21,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 7,15</t>
+          <t>11,53; 17,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,63</t>
+          <t>19,4; 24,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,23</t>
+          <t>14,81; 20,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,67; 5,7</t>
+          <t>12,62; 17,21</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>8,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>8,71%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,91</t>
+          <t>7,38; 9,31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,56</t>
+          <t>3,23; 6,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,54; 12,85</t>
+          <t>4,64; 6,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,59</t>
+          <t>7,83; 9,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,22</t>
+          <t>4,25; 6,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,93</t>
+          <t>5,15; 6,91</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,87</t>
+          <t>7,86; 9,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>7,88; 10,56</t>
+          <t>4,33; 6,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,32; 9,99</t>
+          <t>5,07; 6,29</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>7,39%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>12,07%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>11,44%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>10,18%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>13,83%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>8,66%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>12,08%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>12,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>5,21; 9,42</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>9,77; 14,75</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>9,3; 13,91</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>7,75; 13,34</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 15,96</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>11,56; 16,41</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>7,07; 10,51</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>8,26; 14,34</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>11,05; 14,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>16,36%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>19,92%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>21,97%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>15,7%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>26,44%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>20,18%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>16,01%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>23,88%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>20,92%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>13,2; 19,87</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>16,33; 23,6</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>19,2; 25,92</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>12,91; 19,11</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>23,61; 29,26</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>17,83; 23,25</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>14,04; 18,51</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>21,46; 26,21</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>18,86; 23,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>6,68%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>6,42%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>7,05%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>7,17%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>8,2%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>7,53%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>6,92%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>7,36%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>7,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>5,77; 7,57</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>5,66; 7,29</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>6,33; 7,79</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>6,26; 8,18</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>7,19; 8,91</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 8,32</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>6,35; 7,63</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 7,95</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>6,78; 7,76</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para el estómago</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5788</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1632</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2922</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7419</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 320</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 23856</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6250</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>228; 1985</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8208</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1037; 6908</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>231; 2123</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 31016</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2126; 9510</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1355</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>8592</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3743</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6477</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5099</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>15069</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>496; 2841</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6548</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4852; 14487</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>335; 1893</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>753; 10773</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3217; 12075</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1020; 3646</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1495; 11989</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>9856; 22299</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>2913</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>8131</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6067</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9735</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11984</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5372</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17866</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>18051</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1810; 4593</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3407; 15472</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3044; 10934</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1336; 4123</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5679; 15676</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7595; 18617</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3610; 7527</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11429; 27404</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>11928; 25402</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5543</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22440</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13274</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>6939</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15257</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>10058</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>12483</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37697</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>23332</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3725; 7891</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7056; 41756</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>8316; 19562</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5072; 9648</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9946; 22045</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>5789; 15954</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>9720; 15793</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16482; 54412</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16199; 30933</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12582</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22987</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13952</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10967</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>30025</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13350</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>23550</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>53012</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>27302</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9914; 16242</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15304; 33096</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>8696; 21129</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>8249; 13744</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>22569; 38485</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8638; 19588</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19349; 27903</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>42588; 65890</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>20961; 36791</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13623</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16573</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>12314</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>15729</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>28562</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>18685</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29352</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>45135</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>30999</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10956; 17164</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>11155; 24624</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>8877; 16899</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>12677; 19040</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9597; 57217</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>14186; 24643</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>25591; 34304</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17451; 68856</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>24863; 37647</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>21858</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>24935</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>23019</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>28233</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>42042</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>29839</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>50090</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>66977</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>52858</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>18265; 25622</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>18308; 32606</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>18214; 27869</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>24393; 32254</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>32886; 50426</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>24432; 37201</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>44684; 55729</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>57092; 79243</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>45207; 61662</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>57709</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>102209</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>79001</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>65907</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>130996</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>93316</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>123615</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>233204</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>172317</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>51449; 64908</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>67969; 127846</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>67881; 91053</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>59217; 73394</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>94721; 154876</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>80516; 108013</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>114204; 132841</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>187582; 274841</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>153536; 190474</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_DIG-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Edad-trans_dic.xlsx
@@ -686,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 320</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_DIG-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago</t>
+          <t>Consumo de medicamentos para el estómago (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para el estómago</t>
+          <t>Consumo de medicamentos para el estómago (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_DIG-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Edad-trans_dic.xlsx
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,1</t>
+          <t>0,0; 10,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,18</t>
+          <t>0,15; 2,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,45</t>
+          <t>0,0; 5,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,69</t>
+          <t>0,07; 1,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,37</t>
+          <t>0,0; 7,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,11</t>
+          <t>0,42; 2,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>0,0; 2,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,03</t>
+          <t>0,49; 2,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 3,43</t>
+          <t>0,29; 3,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,77</t>
+          <t>0,63; 2,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,2</t>
+          <t>0,27; 2,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,85</t>
+          <t>1,58; 4,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 4,98</t>
+          <t>1,11; 4,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,23</t>
+          <t>1,29; 3,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,86</t>
+          <t>1,75; 4,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,92</t>
+          <t>1,7; 3,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,33</t>
+          <t>1,86; 4,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,66</t>
+          <t>2,6; 5,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 6,66</t>
+          <t>1,02; 6,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,99</t>
+          <t>3,26; 6,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 5,45</t>
+          <t>2,47; 5,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 5,69</t>
+          <t>3,28; 5,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,27</t>
+          <t>1,71; 5,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,82; 12,8</t>
+          <t>6,67; 11,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 9,76</t>
+          <t>4,63; 9,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,33</t>
+          <t>5,59; 9,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,08; 12,07</t>
+          <t>7,07; 12,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,06; 10,18</t>
+          <t>6,7; 9,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,01</t>
+          <t>6,45; 9,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,18; 15,95</t>
+          <t>10,61; 16,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 11,83</t>
+          <t>5,31; 11,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,03; 16,57</t>
+          <t>11,03; 16,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,12; 12,64</t>
+          <t>1,66; 12,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,5; 15,42</t>
+          <t>11,45; 15,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,42</t>
+          <t>2,42; 10,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>22,52%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,08%</t>
+          <t>20,22%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,96; 26,59</t>
+          <t>18,97; 26,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,06; 21,48</t>
+          <t>12,15; 21,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,21; 24,08</t>
+          <t>17,42; 23,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,08; 21,59</t>
+          <t>14,58; 21,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,2</t>
+          <t>18,9; 23,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,81; 20,56</t>
+          <t>14,7; 20,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8,71%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,38; 9,31</t>
+          <t>6,68; 8,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,08</t>
+          <t>3,3; 6,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,83; 9,7</t>
+          <t>7,34; 8,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,94</t>
+          <t>4,09; 6,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,86; 9,14</t>
+          <t>7,16; 8,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,34</t>
+          <t>4,29; 6,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>538</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>538</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 23856</t>
+          <t>0; 25295</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228; 1985</t>
+          <t>97; 1550</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0; 8208</t>
+          <t>0; 10429</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>231; 2123</t>
+          <t>99; 1799</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0; 31016</t>
+          <t>0; 29693</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>889</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>831</t>
+          <t>794</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>1683</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>496; 2841</t>
+          <t>314; 2085</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 6548</t>
+          <t>0; 6443</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>335; 1893</t>
+          <t>330; 1818</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>753; 10773</t>
+          <t>905; 10672</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1020; 3646</t>
+          <t>904; 3087</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1495; 11989</t>
+          <t>1469; 12250</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2913</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2511</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5372</t>
+          <t>5326</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1810; 4593</t>
+          <t>1639; 4553</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3407; 15472</t>
+          <t>3442; 15406</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1336; 4123</t>
+          <t>1426; 4249</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5679; 15676</t>
+          <t>5653; 16085</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3610; 7527</t>
+          <t>3650; 7638</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>11429; 27404</t>
+          <t>11789; 27648</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6939</t>
+          <t>6916</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12483</t>
+          <t>12423</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3725; 7891</t>
+          <t>3762; 7674</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7056; 41756</t>
+          <t>6379; 43519</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5072; 9648</t>
+          <t>4965; 9719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9946; 22045</t>
+          <t>10015; 22267</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9720; 15793</t>
+          <t>9740; 15559</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16482; 54412</t>
+          <t>17633; 53539</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12582</t>
+          <t>11307</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10967</t>
+          <t>11060</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>23550</t>
+          <t>22367</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9914; 16242</t>
+          <t>8646; 14424</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>15304; 33096</t>
+          <t>15698; 32916</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>8249; 13744</t>
+          <t>8486; 14501</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>22569; 38485</t>
+          <t>22557; 39254</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19349; 27903</t>
+          <t>18848; 26494</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>42588; 65890</t>
+          <t>42435; 65521</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>13623</t>
+          <t>13564</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>15729</t>
+          <t>15887</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>29352</t>
+          <t>29451</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10956; 17164</t>
+          <t>11084; 17157</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11155; 24624</t>
+          <t>11058; 23614</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12677; 19040</t>
+          <t>12770; 19322</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9597; 57217</t>
+          <t>7512; 56563</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25591; 34304</t>
+          <t>25222; 34185</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17451; 68856</t>
+          <t>16005; 69855</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>21858</t>
+          <t>20092</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>28233</t>
+          <t>26753</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>50090</t>
+          <t>46845</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>18265; 25622</t>
+          <t>16927; 23714</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>18308; 32606</t>
+          <t>18439; 32522</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>24393; 32254</t>
+          <t>23044; 31072</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>32886; 50426</t>
+          <t>34064; 50799</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>44684; 55729</t>
+          <t>41880; 52557</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>57092; 79243</t>
+          <t>56660; 78361</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>57709</t>
+          <t>54175</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>65907</t>
+          <t>64458</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>123615</t>
+          <t>118633</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>51449; 64908</t>
+          <t>48389; 60837</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>67969; 127846</t>
+          <t>69363; 127220</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>59217; 73394</t>
+          <t>58504; 71335</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>94721; 154876</t>
+          <t>91212; 153427</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>114204; 132841</t>
+          <t>108945; 127198</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>187582; 274841</t>
+          <t>185888; 270796</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_DIG-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIG-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,45%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,81%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>1,05%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,89%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,38%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,6</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,67</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,71</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,67</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 5,32</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 4,05</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>0,15; 2,34</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 5,66</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,61; 4,05</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>0,0; 3,68</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 2,79</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>0,07; 1,26</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 7,06</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 2,79</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>1,19%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,59%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,72%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>1,17%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,19%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>1,18%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 4,08</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,66; 7,95</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,42; 2,78</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,66; 7,95</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,52; 4,73</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 5,71</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,49; 2,67</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 3,39</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,52; 5,71</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,61; 3,12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2,5; 5,66</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,63; 2,16</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,27; 2,25</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 5,66</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,2%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,71%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,62%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>2,27%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3,63%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>2,48%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,82%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>3,63%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,92; 4,2</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 4,4</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,58; 4,38</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 4,96</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,23; 4,4</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,87; 5,21</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3,05; 7,49</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>1,29; 3,84</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,75; 4,99</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3,05; 7,49</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1,79; 4,12</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2,4; 5,11</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,7; 3,56</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 4,37</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 5,11</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,8%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>4,01%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>4,53%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>3,77%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3,61%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4,79%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>4,18%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,65%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,55; 8,05</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,8; 6,59</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2,6; 5,3</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 6,94</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 6,59</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>2,75; 5,73</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2,07; 5,72</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3,26; 6,37</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>2,47; 5,5</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 5,72</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,57; 6,13</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 5,37</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>3,28; 5,23</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 5,19</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>2,81; 5,37</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>8,73%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,94%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>7,28%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9,42%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>7,98%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,59%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>7,95%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,06%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>4,53; 9,39</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,71; 9,0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>6,67; 11,13</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,63; 9,71</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,71; 9,0</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>7,2; 12,28</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 7,71</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>5,59; 9,55</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>7,07; 12,31</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 7,71</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>6,39; 9,81</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 7,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>6,7; 9,41</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,45; 9,96</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 7,53</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>7,79%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>12,98%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,69%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>11,6%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>13,72%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,31%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,9%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>9,84%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>13,37%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,83%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>5,12; 10,93</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 9,18</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>10,61; 16,42</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 11,35</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 9,18</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>9,04; 14,96</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7,52; 13,06</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>11,03; 16,69</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 12,5</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,52; 13,06</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>7,97; 11,99</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 10,1</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>11,45; 15,52</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 10,57</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6,67; 10,1</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15,71%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>22,52%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>16,43%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>15,71%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>17,88%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14,09%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>20,22%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>18,0%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>14,09%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>17,11%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14,75%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>21,15%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>17,38%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>14,75%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>11,86; 20,8</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12,43; 19,02</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>18,97; 26,58</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>12,15; 21,43</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>12,43; 19,02</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>14,6; 21,9</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>11,53; 17,56</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>17,42; 23,48</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>14,58; 21,75</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>11,53; 17,56</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>14,5; 20,15</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12,62; 17,21</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>18,9; 23,72</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>14,7; 20,33</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>12,62; 17,21</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>5,16%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>7,48%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>4,86%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>5,4%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>8,08%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>7,8%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>4,32; 6,24</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4,64; 6,22</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>6,68; 8,4</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 6,05</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 6,22</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>5,9; 7,57</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5,15; 6,91</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>7,34; 8,94</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>4,09; 6,88</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>5,15; 6,91</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>5,3; 6,55</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 6,29</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>7,16; 8,36</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 6,25</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>5,07; 6,29</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2980</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1782</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5788</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>1782</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2922</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>538</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1632</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2922</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>4850</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4705</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>538</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>7419</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>4705</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0; 13502</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6250</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0; 25295</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0; 6250</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0; 11690</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1037; 6908</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>97; 1550</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0; 10429</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1037; 6908</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0; 16980</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2126; 9510</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>99; 1799</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0; 29693</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2126; 9510</t>
         </is>
       </c>
     </row>
@@ -1823,47 +1823,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>11</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2943</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8592</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>889</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1355</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>8592</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4999</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6477</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>794</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3743</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6477</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>7942</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15069</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1683</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>5099</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>15069</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 10686</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4852; 14487</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>314; 2085</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 6443</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4852; 14487</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1467; 13403</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3217; 12075</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>330; 1818</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>905; 10672</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>3217; 12075</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3343; 17004</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9856; 22299</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>904; 3087</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1469; 12250</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>9856; 22299</t>
         </is>
       </c>
     </row>
@@ -1986,47 +1986,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>32</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
         </is>
       </c>
     </row>
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>8110</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6067</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>2815</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>8131</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6067</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>11637</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11984</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>2511</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>9735</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>11984</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>19747</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>18051</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5326</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>17866</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>18051</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3397; 15466</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3044; 10934</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1639; 4553</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3442; 15406</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3044; 10934</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>6994; 19449</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7595; 18617</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1426; 4249</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5653; 16085</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7595; 18617</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>13276; 30594</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11928; 25402</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>3650; 7638</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>11789; 27648</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>11928; 25402</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>74</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>23777</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13274</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>5507</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>22440</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13274</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>17686</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10058</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>6916</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>15257</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>10058</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>41462</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>23332</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>12423</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>37697</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>23332</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>15056; 34122</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>8316; 19562</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>3762; 7674</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>6379; 43519</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8316; 19562</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>12154; 25286</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>5789; 15954</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>4965; 9719</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>10015; 22267</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5789; 15954</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>30879; 53022</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16199; 30933</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>9740; 15559</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>17633; 53539</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>16199; 30933</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>66</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>130</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>24083</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13952</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>11307</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>22987</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>13952</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>34036</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>13350</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>11060</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>30025</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>13350</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>58119</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27302</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>22367</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>53012</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>27302</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>16666; 34552</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8696; 21129</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>8646; 14424</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>15698; 32916</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>8696; 21129</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>25931; 44255</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>8638; 19588</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>8486; 14501</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>22557; 39254</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>8638; 19588</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>46542; 71456</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20961; 36791</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>18848; 26494</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>42435; 65521</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>20961; 36791</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>94</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>175</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>91</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>18013</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12314</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>13564</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>16573</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>12314</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>31327</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>18685</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>15887</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>28562</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>18685</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>49341</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>30999</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>29451</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>45135</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>30999</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>11852; 25268</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8877; 16899</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>11084; 17157</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>11058; 23614</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>8877; 16899</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>24407; 40409</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>14186; 24643</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>12770; 19322</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>7512; 56563</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>14186; 24643</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>39931; 60091</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>24863; 37647</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>25222; 34185</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>16005; 69855</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>24863; 37647</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>121</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>79</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>165</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>286</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>163</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>26339</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>23019</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>20092</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>24935</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>23019</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>45893</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>29839</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>26753</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>42042</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>29839</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>72232</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>52858</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>46845</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>66977</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>52858</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>19641; 34447</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>18214; 27869</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>16927; 23714</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>18439; 32522</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>18214; 27869</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>37477; 56191</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>24432; 37201</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>23044; 31072</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>34064; 50799</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>24432; 37201</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>61230; 85074</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>45207; 61662</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>41880; 52557</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>56660; 78361</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>45207; 61662</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>325</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>386</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>251</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>208</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>711</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>379</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>404</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>106244</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>79001</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>54175</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>102209</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>79001</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>147449</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>93316</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>64458</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>130996</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>93316</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>253693</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>172317</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>118633</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>233204</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>172317</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>88950; 128550</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>67881; 91053</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>48389; 60837</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>69363; 127220</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>67881; 91053</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>130013; 166967</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>80516; 108013</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>58504; 71335</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>91212; 153427</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>80516; 108013</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>226177; 279435</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>153536; 190474</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>108945; 127198</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>185888; 270796</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>153536; 190474</t>
         </is>
       </c>
     </row>
